--- a/2/PZR/Cv/09/HTK-example/Results.xlsx
+++ b/2/PZR/Cv/09/HTK-example/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Ing\TUL_Ing\2\PZR\Cv\09\HTK-example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B799D395-BCE9-48BA-901E-E7D2F92C9FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA08243-129F-4EFB-ACAF-5DDF49BDF4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Pokus5</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>Live 1 or more words</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>mfcc12</t>
+  </si>
+  <si>
+    <t>mfcc24</t>
+  </si>
+  <si>
+    <t>SI time [s]</t>
+  </si>
+  <si>
+    <t>SI [%]</t>
+  </si>
+  <si>
+    <t>SD time [s]</t>
+  </si>
+  <si>
+    <t>SD [%]</t>
+  </si>
+  <si>
+    <t>DTW</t>
   </si>
 </sst>
 </file>
@@ -93,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,12 +125,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -387,83 +430,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I5"/>
+  <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>91.25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>71.25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>91.25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>71.56</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>97.19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E15" s="2">
+        <v>85.62</v>
+      </c>
+      <c r="F15" s="2">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
